--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 11,93</t>
+          <t>-7,89; 11,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 14,88</t>
+          <t>-6,1; 15,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 25,45</t>
+          <t>2,05; 25,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 16,23</t>
+          <t>-7,92; 16,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 12,58</t>
+          <t>-12,05; 11,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 8,31</t>
+          <t>-11,91; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 11,83</t>
+          <t>-4,07; 11,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,82</t>
+          <t>-5,96; 9,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 13,62</t>
+          <t>-1,34; 13,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 107,1</t>
+          <t>-37,53; 99,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 125,0</t>
+          <t>-30,02; 129,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 218,09</t>
+          <t>8,74; 228,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 76,65</t>
+          <t>-24,65; 74,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 57,46</t>
+          <t>-38,51; 55,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 38,61</t>
+          <t>-36,36; 32,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 65,38</t>
+          <t>-16,11; 61,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 61,36</t>
+          <t>-23,88; 51,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 73,09</t>
+          <t>-5,6; 73,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 1,94</t>
+          <t>-7,34; 1,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,75</t>
+          <t>-6,13; 2,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,05</t>
+          <t>-4,07; 4,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,64</t>
+          <t>-12,12; -1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -2,88</t>
+          <t>-13,41; -2,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -2,06</t>
+          <t>-11,64; -2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -1,06</t>
+          <t>-8,06; -1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -1,4</t>
+          <t>-8,05; -1,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,07</t>
+          <t>-6,41; -0,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 10,97</t>
+          <t>-34,85; 10,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 16,62</t>
+          <t>-29,69; 17,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 30,88</t>
+          <t>-19,79; 26,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -2,52</t>
+          <t>-36,99; -3,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -10,44</t>
+          <t>-40,95; -9,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,73; -7,45</t>
+          <t>-35,65; -8,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -4,88</t>
+          <t>-30,88; -6,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,05; -5,24</t>
+          <t>-31,59; -6,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 0,85</t>
+          <t>-24,59; 0,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -3,43</t>
+          <t>-10,58; -3,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,71</t>
+          <t>-10,45; -3,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -5,25</t>
+          <t>-12,76; -5,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -5,83</t>
+          <t>-14,37; -6,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -6,4</t>
+          <t>-14,33; -6,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -8,29</t>
+          <t>-15,76; -7,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -5,77</t>
+          <t>-11,62; -6,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -5,9</t>
+          <t>-11,41; -6,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -7,99</t>
+          <t>-13,1; -7,77</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,39; -17,72</t>
+          <t>-45,02; -17,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -18,03</t>
+          <t>-44,43; -17,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -26,89</t>
+          <t>-53,73; -25,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -19,04</t>
+          <t>-40,25; -19,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,24; -20,5</t>
+          <t>-40,88; -20,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,15; -26,65</t>
+          <t>-44,36; -25,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,41; -22,78</t>
+          <t>-40,26; -23,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -22,98</t>
+          <t>-39,76; -23,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,47; -30,25</t>
+          <t>-45,57; -29,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,43</t>
+          <t>-3,08; 5,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,09</t>
+          <t>-5,98; 1,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,47</t>
+          <t>-5,77; 2,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 5,39</t>
+          <t>-3,56; 6,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,97</t>
+          <t>-8,04; 0,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 0,18</t>
+          <t>-12,05; 0,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,1</t>
+          <t>-1,84; 3,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,31</t>
+          <t>-5,48; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,33</t>
+          <t>-6,61; 0,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 34,51</t>
+          <t>-16,32; 36,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 13,49</t>
+          <t>-30,98; 13,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 16,24</t>
+          <t>-30,74; 16,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 25,72</t>
+          <t>-13,77; 29,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 4,84</t>
+          <t>-30,2; 3,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 0,53</t>
+          <t>-46,6; 1,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 22,25</t>
+          <t>-8,68; 20,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 1,79</t>
+          <t>-25,13; 2,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 0,53</t>
+          <t>-30,63; 1,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,4</t>
+          <t>-2,86; 4,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,89</t>
+          <t>-7,87; -0,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,47</t>
+          <t>-4,57; 3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 2,51</t>
+          <t>-5,93; 2,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -3,31</t>
+          <t>-11,16; -3,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -0,98</t>
+          <t>-8,54; -0,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,04</t>
+          <t>-3,39; 2,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -3,45</t>
+          <t>-8,75; -3,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -0,2</t>
+          <t>-5,0; 0,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 24,11</t>
+          <t>-13,26; 22,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -4,48</t>
+          <t>-36,08; -3,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 19,53</t>
+          <t>-21,22; 18,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 8,84</t>
+          <t>-17,85; 8,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -11,36</t>
+          <t>-34,19; -10,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -3,84</t>
+          <t>-26,21; -2,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,33</t>
+          <t>-12,8; 8,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -13,97</t>
+          <t>-32,35; -13,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -0,86</t>
+          <t>-18,96; 1,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,13; -0,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,63; -1,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,7</t>
+          <t>-4,75; -0,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,49; -2,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,42; -5,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,2</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,77; -1,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-7,17; -4,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,39</t>
+          <t>-6,38; -3,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,04; -0,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,4; -9,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -3,85</t>
+          <t>-23,02; -4,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,96; -7,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-30,64; -18,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -18,09</t>
+          <t>-32,17; -17,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,71; -7,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-28,1; -17,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -14,17</t>
+          <t>-25,12; -13,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 11,94</t>
+          <t>-9,41; 11,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 15,34</t>
+          <t>-5,08; 15,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 25,44</t>
+          <t>2,61; 25,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 16,48</t>
+          <t>-6,86; 16,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 11,49</t>
+          <t>-10,84; 11,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 7,13</t>
+          <t>-11,58; 8,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 11,45</t>
+          <t>-3,44; 12,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 9,44</t>
+          <t>-5,01; 9,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 13,11</t>
+          <t>-1,6; 13,18</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 99,22</t>
+          <t>-43,86; 100,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 129,14</t>
+          <t>-25,45; 136,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 228,78</t>
+          <t>9,36; 223,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 74,01</t>
+          <t>-21,02; 77,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 55,55</t>
+          <t>-35,01; 58,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 32,04</t>
+          <t>-34,74; 40,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 61,34</t>
+          <t>-13,86; 73,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 51,3</t>
+          <t>-20,55; 54,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 73,0</t>
+          <t>-6,82; 70,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,6</t>
+          <t>-7,09; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,72</t>
+          <t>-6,27; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,44</t>
+          <t>-4,53; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; -1,14</t>
+          <t>-11,14; -1,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -2,56</t>
+          <t>-13,56; -3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -2,46</t>
+          <t>-11,54; -2,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -1,39</t>
+          <t>-8,36; -1,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -1,62</t>
+          <t>-8,16; -1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -0,01</t>
+          <t>-6,49; 0,03</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 10,4</t>
+          <t>-34,19; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 17,74</t>
+          <t>-29,29; 16,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 26,6</t>
+          <t>-21,21; 28,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -3,92</t>
+          <t>-34,76; -3,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -9,27</t>
+          <t>-41,95; -10,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,65; -8,72</t>
+          <t>-35,37; -8,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,88; -6,29</t>
+          <t>-31,79; -5,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,59; -6,76</t>
+          <t>-31,71; -5,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 0,1</t>
+          <t>-25,0; 0,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -3,42</t>
+          <t>-10,64; -3,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -3,63</t>
+          <t>-10,36; -3,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -5,0</t>
+          <t>-12,57; -5,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -6,01</t>
+          <t>-14,32; -5,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -6,39</t>
+          <t>-14,51; -6,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -7,83</t>
+          <t>-15,6; -7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,25</t>
+          <t>-11,44; -5,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -6,09</t>
+          <t>-11,53; -6,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -7,77</t>
+          <t>-13,17; -7,97</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,02; -17,03</t>
+          <t>-45,04; -17,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,43; -17,75</t>
+          <t>-44,27; -18,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,73; -25,82</t>
+          <t>-52,96; -25,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,25; -19,18</t>
+          <t>-40,66; -19,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; -20,18</t>
+          <t>-41,26; -19,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,36; -25,85</t>
+          <t>-44,36; -26,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,26; -23,93</t>
+          <t>-39,82; -23,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,76; -23,06</t>
+          <t>-39,94; -23,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -29,67</t>
+          <t>-45,69; -30,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,41</t>
+          <t>-2,77; 5,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,97</t>
+          <t>-5,78; 1,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,59</t>
+          <t>-5,81; 2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 6,21</t>
+          <t>-3,84; 5,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,68</t>
+          <t>-7,69; 0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 0,47</t>
+          <t>-11,41; 0,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,96</t>
+          <t>-2,06; 4,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,48</t>
+          <t>-5,81; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 0,22</t>
+          <t>-7,2; 0,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 36,76</t>
+          <t>-14,72; 37,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 13,88</t>
+          <t>-30,38; 12,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,74; 16,92</t>
+          <t>-29,99; 15,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 29,12</t>
+          <t>-15,11; 26,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 3,18</t>
+          <t>-30,46; 3,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 1,92</t>
+          <t>-45,37; 0,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 20,73</t>
+          <t>-9,62; 23,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 2,58</t>
+          <t>-26,53; 1,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 1,04</t>
+          <t>-32,86; 0,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,24</t>
+          <t>-3,17; 4,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -0,78</t>
+          <t>-7,79; -0,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,36</t>
+          <t>-3,95; 3,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,33</t>
+          <t>-5,78; 2,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,06</t>
+          <t>-11,41; -3,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,69</t>
+          <t>-8,98; -0,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,03</t>
+          <t>-3,31; 2,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -3,3</t>
+          <t>-8,53; -3,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,3</t>
+          <t>-5,29; 0,08</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 22,87</t>
+          <t>-15,12; 23,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,08; -3,77</t>
+          <t>-35,92; -5,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 18,52</t>
+          <t>-18,45; 16,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 8,29</t>
+          <t>-17,49; 8,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,19; -10,63</t>
+          <t>-34,65; -11,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,21; -2,33</t>
+          <t>-27,35; -3,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 8,57</t>
+          <t>-12,29; 8,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,35; -13,36</t>
+          <t>-31,74; -13,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 1,29</t>
+          <t>-19,74; 0,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,18</t>
+          <t>-4,21; -0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -1,83</t>
+          <t>-5,7; -1,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,75</t>
+          <t>-4,86; -0,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -2,07</t>
+          <t>-6,55; -2,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,16</t>
+          <t>-9,56; -5,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-10,08; -5,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -1,79</t>
+          <t>-4,65; -1,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -4,3</t>
+          <t>-7,14; -4,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,3</t>
+          <t>-6,32; -3,32</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -0,97</t>
+          <t>-20,24; -1,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -9,79</t>
+          <t>-28,22; -10,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -4,03</t>
+          <t>-23,54; -4,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,96; -7,44</t>
+          <t>-21,27; -7,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -18,21</t>
+          <t>-30,75; -18,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -17,77</t>
+          <t>-33,14; -18,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -7,32</t>
+          <t>-18,26; -7,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -17,86</t>
+          <t>-27,85; -17,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -13,84</t>
+          <t>-25,15; -14,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 11,72</t>
+          <t>-8,01; 11,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 15,64</t>
+          <t>-5,63; 14,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 25,87</t>
+          <t>1,71; 25,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 16,98</t>
+          <t>-7,65; 16,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 11,92</t>
+          <t>-11,85; 12,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 8,59</t>
+          <t>-10,88; 8,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 12,87</t>
+          <t>-4,35; 11,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 9,83</t>
+          <t>-4,73; 10,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 13,18</t>
+          <t>-1,08; 13,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 100,83</t>
+          <t>-38,82; 107,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 136,93</t>
+          <t>-26,75; 125,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 223,02</t>
+          <t>6,18; 218,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 77,38</t>
+          <t>-23,29; 76,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 58,44</t>
+          <t>-36,92; 57,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 40,98</t>
+          <t>-32,88; 38,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 73,28</t>
+          <t>-17,72; 65,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 54,59</t>
+          <t>-18,81; 61,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 70,41</t>
+          <t>-4,73; 73,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,46</t>
+          <t>-7,16; 1,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,74</t>
+          <t>-6,41; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 4,75</t>
+          <t>-3,89; 5,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -1,08</t>
+          <t>-11,47; -0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -3,06</t>
+          <t>-13,67; -2,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -2,37</t>
+          <t>-11,93; -2,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -1,45</t>
+          <t>-8,11; -1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -1,1</t>
+          <t>-8,19; -1,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 0,03</t>
+          <t>-6,47; 0,07</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 9,11</t>
+          <t>-35,54; 10,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 16,83</t>
+          <t>-30,39; 16,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 28,48</t>
+          <t>-19,19; 30,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -3,76</t>
+          <t>-35,41; -2,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -10,89</t>
+          <t>-42,0; -10,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -8,63</t>
+          <t>-36,73; -7,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,79; -5,8</t>
+          <t>-31,28; -4,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; -5,16</t>
+          <t>-31,05; -5,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 0,21</t>
+          <t>-24,86; 0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -3,53</t>
+          <t>-10,36; -3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -3,64</t>
+          <t>-10,67; -3,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -5,09</t>
+          <t>-12,72; -5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -5,84</t>
+          <t>-14,32; -5,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -6,01</t>
+          <t>-14,65; -6,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -7,88</t>
+          <t>-15,6; -8,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -5,98</t>
+          <t>-11,26; -5,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -6,06</t>
+          <t>-11,23; -5,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -7,97</t>
+          <t>-13,14; -7,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,04; -17,97</t>
+          <t>-44,39; -17,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,27; -18,17</t>
+          <t>-45,05; -18,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,96; -25,64</t>
+          <t>-54,2; -26,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,66; -19,28</t>
+          <t>-40,55; -19,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -19,4</t>
+          <t>-41,24; -20,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,36; -26,19</t>
+          <t>-44,15; -26,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -23,03</t>
+          <t>-39,41; -22,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -23,42</t>
+          <t>-39,58; -22,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,69; -30,71</t>
+          <t>-45,47; -30,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,56</t>
+          <t>-3,19; 5,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,88</t>
+          <t>-5,97; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,3</t>
+          <t>-5,76; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,63</t>
+          <t>-3,26; 5,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,86</t>
+          <t>-7,42; 0,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 0,23</t>
+          <t>-13,27; 0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,29</t>
+          <t>-2,39; 4,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,23</t>
+          <t>-5,91; 0,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 0,13</t>
+          <t>-7,29; 0,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 37,21</t>
+          <t>-16,65; 34,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 12,63</t>
+          <t>-30,78; 13,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 15,44</t>
+          <t>-30,35; 16,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 26,34</t>
+          <t>-12,81; 25,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 3,49</t>
+          <t>-29,29; 4,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 0,73</t>
+          <t>-49,44; 0,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 23,01</t>
+          <t>-10,79; 22,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 1,09</t>
+          <t>-26,54; 1,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 0,3</t>
+          <t>-33,9; 0,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,34</t>
+          <t>-2,88; 4,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -0,91</t>
+          <t>-7,73; -0,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,12</t>
+          <t>-3,92; 3,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,49</t>
+          <t>-5,68; 2,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -3,34</t>
+          <t>-11,03; -3,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -0,96</t>
+          <t>-8,72; -0,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,18</t>
+          <t>-3,6; 2,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -3,16</t>
+          <t>-8,66; -3,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,08</t>
+          <t>-5,35; -0,2</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 23,98</t>
+          <t>-13,26; 24,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -5,25</t>
+          <t>-35,63; -4,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 16,42</t>
+          <t>-17,79; 19,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 8,93</t>
+          <t>-17,04; 8,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -11,09</t>
+          <t>-33,66; -11,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -3,22</t>
+          <t>-26,61; -3,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 8,94</t>
+          <t>-13,2; 8,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,74; -13,07</t>
+          <t>-32,1; -13,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 0,11</t>
+          <t>-19,57; -0,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,33</t>
+          <t>-4,08; -0,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -1,92</t>
+          <t>-5,49; -2,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,79</t>
+          <t>-4,64; -0,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,07</t>
+          <t>-6,3; -1,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -5,39</t>
+          <t>-9,5; -5,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -5,29</t>
+          <t>-9,97; -5,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,78</t>
+          <t>-4,82; -1,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -4,22</t>
+          <t>-7,12; -4,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -3,32</t>
+          <t>-6,38; -3,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -1,62</t>
+          <t>-20,14; -1,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -10,49</t>
+          <t>-27,15; -11,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -4,34</t>
+          <t>-23,01; -3,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -7,16</t>
+          <t>-20,44; -6,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -18,73</t>
+          <t>-31,14; -18,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -18,5</t>
+          <t>-32,27; -18,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -7,35</t>
+          <t>-18,88; -7,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -17,32</t>
+          <t>-27,94; -17,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -14,03</t>
+          <t>-25,18; -14,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,48</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 11,93</t>
+          <t>-6,19; 2,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 14,88</t>
+          <t>-4,34; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 25,45</t>
+          <t>-2,27; 6,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 16,23</t>
+          <t>-9,29; 0,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 12,58</t>
+          <t>-11,86; -2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 8,31</t>
+          <t>-10,41; -1,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 11,83</t>
+          <t>-6,72; -0,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,82</t>
+          <t>-6,94; -0,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 13,62</t>
+          <t>-4,65; 1,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-23,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>-20,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>-15,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>-8,1%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 107,1</t>
+          <t>-29,99; 12,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 125,0</t>
+          <t>-21,73; 23,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 218,09</t>
+          <t>-11,17; 37,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 76,65</t>
+          <t>-29,08; 0,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 57,46</t>
+          <t>-37,34; -8,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 38,61</t>
+          <t>-32,06; -6,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 65,38</t>
+          <t>-26,58; -1,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 61,36</t>
+          <t>-26,87; -3,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 73,09</t>
+          <t>-18,01; 6,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-10,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-11,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-11,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 1,94</t>
+          <t>-10,36; -3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,75</t>
+          <t>-10,67; -3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,05</t>
+          <t>-17,04; -6,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,64</t>
+          <t>-14,32; -5,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -2,88</t>
+          <t>-14,65; -6,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -2,06</t>
+          <t>-15,4; -7,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -1,06</t>
+          <t>-11,26; -5,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -1,4</t>
+          <t>-11,23; -5,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,07</t>
+          <t>-17,47; -8,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-50,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,08%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,8%</t>
+          <t>-31,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,66%</t>
+          <t>-35,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-31,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-43,5%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 10,97</t>
+          <t>-44,39; -17,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 16,62</t>
+          <t>-45,05; -18,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 30,88</t>
+          <t>-75,04; -32,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -2,52</t>
+          <t>-40,55; -19,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -10,44</t>
+          <t>-41,24; -20,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,73; -7,45</t>
+          <t>-43,73; -26,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -4,88</t>
+          <t>-39,41; -22,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,05; -5,24</t>
+          <t>-39,58; -22,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 0,85</t>
+          <t>-62,27; -33,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,37</t>
+          <t>-4,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -3,43</t>
+          <t>-3,19; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,71</t>
+          <t>-5,97; 2,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -5,25</t>
+          <t>-5,87; 2,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -5,83</t>
+          <t>-3,26; 5,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -6,4</t>
+          <t>-7,42; 0,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -8,29</t>
+          <t>-17,51; -0,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -5,77</t>
+          <t>-2,39; 4,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -5,9</t>
+          <t>-5,91; 0,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -7,99</t>
+          <t>-10,65; -0,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,92%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,38%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,64%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-14,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,3%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,77%</t>
+          <t>-13,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,92%</t>
+          <t>-20,45%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,39; -17,72</t>
+          <t>-16,65; 34,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -18,03</t>
+          <t>-30,78; 13,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -26,89</t>
+          <t>-31,19; 15,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -19,04</t>
+          <t>-12,81; 25,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,24; -20,5</t>
+          <t>-29,29; 4,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,15; -26,65</t>
+          <t>-64,54; -2,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,41; -22,78</t>
+          <t>-10,79; 22,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -22,98</t>
+          <t>-26,54; 1,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,47; -30,25</t>
+          <t>-49,05; -2,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-3,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,43</t>
+          <t>-2,88; 4,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,09</t>
+          <t>-7,73; -0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,47</t>
+          <t>-4,16; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 5,39</t>
+          <t>-5,68; 2,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,97</t>
+          <t>-11,03; -3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 0,18</t>
+          <t>-11,59; -2,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,1</t>
+          <t>-3,6; 2,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,31</t>
+          <t>-8,66; -3,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,33</t>
+          <t>-6,95; -0,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,72%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>-19,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>-22,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-13,44%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 34,51</t>
+          <t>-13,26; 24,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 13,49</t>
+          <t>-35,63; -4,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 16,24</t>
+          <t>-18,9; 18,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 25,72</t>
+          <t>-17,04; 8,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 4,84</t>
+          <t>-33,66; -11,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 0,53</t>
+          <t>-35,84; -7,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 22,25</t>
+          <t>-13,2; 8,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 1,79</t>
+          <t>-32,1; -13,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 0,53</t>
+          <t>-25,7; -3,26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-5,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,4</t>
+          <t>-4,08; -0,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,89</t>
+          <t>-5,49; -2,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,47</t>
+          <t>-7,25; -1,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 2,51</t>
+          <t>-6,3; -1,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -3,31</t>
+          <t>-9,5; -5,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -0,98</t>
+          <t>-12,08; -5,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,04</t>
+          <t>-4,82; -1,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -3,45</t>
+          <t>-7,12; -4,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -0,2</t>
+          <t>-8,51; -4,05</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-14,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>-25,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-24,13%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 24,11</t>
+          <t>-20,14; -1,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -4,48</t>
+          <t>-27,15; -11,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 19,53</t>
+          <t>-36,69; -8,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 8,84</t>
+          <t>-20,44; -6,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -11,36</t>
+          <t>-31,14; -18,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -3,84</t>
+          <t>-40,79; -20,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,33</t>
+          <t>-18,88; -7,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -13,97</t>
+          <t>-27,94; -17,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -0,86</t>
+          <t>-33,6; -16,91</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,84</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-4,2</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-7,43</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-7,13</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-5,64</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-4,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; -0,29</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; -2,1</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; -0,7</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; -1,83</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -5,23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; -5,2</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; -1,8</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; -4,09</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; -3,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-11,28%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-19,68%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-13,92%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-14,16%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-25,05%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-24,04%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-12,99%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-22,88%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-19,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; -1,63</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-27,15; -11,27</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-23,01; -3,85</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; -6,43</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-31,14; -18,4</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-32,27; -18,09</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-18,88; -7,51</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-27,94; -17,02</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; -14,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,0</t>
+          <t>-5,94; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,7</t>
+          <t>-4,5; 4,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,24</t>
+          <t>-1,87; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,19</t>
+          <t>-9,33; 0,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -2,37</t>
+          <t>-11,89; -2,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,41; -1,97</t>
+          <t>-10,16; -2,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,42</t>
+          <t>-6,96; -0,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -0,84</t>
+          <t>-7,07; -0,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,21</t>
+          <t>-4,9; 1,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 12,4</t>
+          <t>-29,99; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 23,01</t>
+          <t>-21,81; 25,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 37,6</t>
+          <t>-9,39; 40,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 0,79</t>
+          <t>-28,89; 2,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,34; -8,29</t>
+          <t>-37,26; -8,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; -6,95</t>
+          <t>-31,8; -7,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -1,85</t>
+          <t>-26,71; -2,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -3,64</t>
+          <t>-28,0; -2,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 6,19</t>
+          <t>-19,2; 5,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -3,43</t>
+          <t>-10,38; -3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,71</t>
+          <t>-10,61; -3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -6,45</t>
+          <t>-16,96; -6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -5,83</t>
+          <t>-14,78; -6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -6,4</t>
+          <t>-14,54; -6,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,4; -7,97</t>
+          <t>-15,5; -8,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -5,77</t>
+          <t>-11,35; -6,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -5,9</t>
+          <t>-11,37; -5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -8,88</t>
+          <t>-17,51; -8,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,39; -17,72</t>
+          <t>-44,4; -19,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -18,03</t>
+          <t>-45,1; -17,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,04; -32,13</t>
+          <t>-72,5; -33,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -19,04</t>
+          <t>-40,98; -20,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,24; -20,5</t>
+          <t>-40,87; -18,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,73; -26,01</t>
+          <t>-43,9; -26,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,41; -22,78</t>
+          <t>-39,3; -23,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -22,98</t>
+          <t>-39,52; -23,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -33,39</t>
+          <t>-61,92; -34,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,43</t>
+          <t>-3,09; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,09</t>
+          <t>-5,68; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,34</t>
+          <t>-5,58; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 5,39</t>
+          <t>-3,55; 5,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,97</t>
+          <t>-8,01; 0,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -0,49</t>
+          <t>-15,53; -0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,1</t>
+          <t>-2,22; 3,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,31</t>
+          <t>-5,66; 0,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -0,4</t>
+          <t>-10,12; -0,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 34,51</t>
+          <t>-16,48; 32,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 13,49</t>
+          <t>-30,07; 13,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 15,28</t>
+          <t>-29,59; 14,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 25,72</t>
+          <t>-13,6; 26,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 4,84</t>
+          <t>-30,87; 3,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,54; -2,01</t>
+          <t>-61,9; -2,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 22,25</t>
+          <t>-10,19; 20,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 1,79</t>
+          <t>-26,04; 2,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -2,53</t>
+          <t>-46,67; -3,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,4</t>
+          <t>-4,08; 4,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,89</t>
+          <t>-7,81; -0,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,25</t>
+          <t>-4,22; 3,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 2,51</t>
+          <t>-5,0; 3,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -3,31</t>
+          <t>-11,36; -3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -2,11</t>
+          <t>-12,41; -2,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,04</t>
+          <t>-3,48; 2,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -3,45</t>
+          <t>-8,77; -3,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -0,78</t>
+          <t>-6,47; -0,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 24,11</t>
+          <t>-17,97; 22,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -4,48</t>
+          <t>-36,0; -3,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 18,35</t>
+          <t>-19,3; 16,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 8,84</t>
+          <t>-15,67; 11,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -11,36</t>
+          <t>-34,85; -12,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; -7,19</t>
+          <t>-37,26; -8,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,33</t>
+          <t>-12,87; 8,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -13,97</t>
+          <t>-31,69; -12,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,7; -3,26</t>
+          <t>-24,4; -1,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,22; -0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,66; -1,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -1,56</t>
+          <t>-7,47; -1,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,37; -2,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,6; -5,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -5,79</t>
+          <t>-12,64; -5,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,64; -1,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-6,96; -4,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -4,05</t>
+          <t>-8,51; -4,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,43; -2,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,63; -9,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -8,94</t>
+          <t>-36,83; -8,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,78; -7,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-31,2; -18,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -20,23</t>
+          <t>-42,08; -19,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,15; -6,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-27,67; -16,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -16,91</t>
+          <t>-33,82; -17,27</t>
         </is>
       </c>
     </row>
